--- a/tut05/output/0501EE24.xlsx
+++ b/tut05/output/0501EE24.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.73469387755102</v>
+        <v>8.73</v>
       </c>
       <c r="C6" t="n">
-        <v>8.227272727272727</v>
+        <v>8.23</v>
       </c>
       <c r="D6" t="n">
-        <v>8.630434782608695</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.195652173913043</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.153846153846153</v>
+        <v>9.15</v>
       </c>
       <c r="G6" t="n">
         <v>8.050000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9.209302325581396</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>9.210526315789474</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.73469387755102</v>
+        <v>8.73</v>
       </c>
       <c r="C8" t="n">
-        <v>8.494623655913978</v>
+        <v>8.49</v>
       </c>
       <c r="D8" t="n">
-        <v>8.53956834532374</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.454054054054055</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.575892857142858</v>
+        <v>8.58</v>
       </c>
       <c r="G8" t="n">
-        <v>8.496212121212121</v>
+        <v>8.5</v>
       </c>
       <c r="H8" t="n">
-        <v>8.596091205211726</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.663768115942029</v>
+        <v>8.66</v>
       </c>
     </row>
   </sheetData>
